--- a/media/offers/24/offer_None.xlsx
+++ b/media/offers/24/offer_None.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C3:I52"/>
+  <dimension ref="C3:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-18</t>
         </is>
       </c>
     </row>
@@ -636,12 +636,12 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>F4-CGM09090</t>
+          <t>F4-CGM04060</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Modulo de Control FACILITY EXPLORER F4-CGM09090-0</t>
+          <t>Modulo de Control FACILITY EXPLORER F4-CGM04060-0</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>VDQ-00QA2</t>
+          <t>F4-CGM09090-0</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Modulo de Control; BAC-Net-DDC 2.0 (VDQ-00QA2); 16 Puntos: 6 UI; 4 DI; 3 DO y 3 AO</t>
+          <t>Modulo de Control FACILITY EXPLORER F4-CGM09090-0</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -682,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>1180</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>1180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -762,109 +762,109 @@
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="2" t="n"/>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>F4-CGM09090-0</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>Modulo de Control FACILITY EXPLORER F4-CGM09090-0</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="2" t="n"/>
+      <c r="D17" s="2" t="n"/>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>SUBTOTAL ( USD)</t>
         </is>
       </c>
-      <c r="F16" s="2" t="n"/>
-      <c r="G16" s="2" t="n"/>
-      <c r="H16" s="2" t="n"/>
-      <c r="I16" s="2" t="n">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="18" ht="25" customHeight="1">
-      <c r="C18" s="4" t="inlineStr">
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="19" ht="25" customHeight="1">
+      <c r="C19" s="4" t="inlineStr">
         <is>
           <t>INTRUEMENTOS / COFRES</t>
         </is>
       </c>
-      <c r="D18" s="5" t="n"/>
-      <c r="E18" s="5" t="n"/>
-      <c r="F18" s="5" t="n"/>
-      <c r="G18" s="5" t="n"/>
-      <c r="H18" s="5" t="n"/>
-      <c r="I18" s="6" t="n"/>
-    </row>
-    <row r="19">
-      <c r="C19" s="7" t="inlineStr">
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
+      <c r="H19" s="5" t="n"/>
+      <c r="I19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="7" t="inlineStr">
         <is>
           <t>TAB CONT 01</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="C20" s="2" t="inlineStr">
+    <row r="21">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>ITEM</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>MODELO</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>DESCRIPCIÓN</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>UNIDAD</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>CANTIDAD</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>VALOR UNITARIO (USD)</t>
         </is>
       </c>
-      <c r="I20" s="2" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>VALOR TOTAL (USD)</t>
         </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="C21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>TR40VA004</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>TRANFORMADOR 40 VA (TR40VA004)</t>
-        </is>
-      </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>UND</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I21" s="3" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
@@ -893,16 +893,16 @@
     </row>
     <row r="23">
       <c r="C23" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>TR75VA004</t>
+          <t>TR40VA004</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>TRANFORMADOR 75 VA (TR75VA004)</t>
+          <t>TRANFORMADOR 40 VA (TR40VA004)</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
@@ -914,24 +914,24 @@
         <v>1</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>AQD-BBBE</t>
+          <t>CKIT-VMD1B-C24A</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>AQD-BBBE SENSOR DE TEMPERATURA DEL CONDUCTO</t>
+          <t>RLY KIT-VMD1B-C24A</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
@@ -943,15 +943,15 @@
         <v>1</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>100</v>
+        <v>16.65</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>100</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="25">
       <c r="C25" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
@@ -980,16 +980,16 @@
     </row>
     <row r="26">
       <c r="C26" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>CO5050</t>
+          <t>AQD-BBBE</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>COFRE METALICO DE 50cm x 50cm x 15cm</t>
+          <t>AQD-BBBE SENSOR DE TEMPERATURA DEL CONDUCTO</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
@@ -1001,24 +1001,24 @@
         <v>1</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" s="2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>CKIT-VMD1B-C24A</t>
+          <t>CO5050</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>RLY KIT-VMD1B-C24A</t>
+          <t>COFRE METALICO DE 50cm x 50cm x 15cm</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
@@ -1030,10 +1030,10 @@
         <v>1</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>16.65</v>
+        <v>1000</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>16.65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>TR40VA004</t>
+          <t>P74FA-1C</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>TRANFORMADOR 40 VA (TR40VA004)</t>
+          <t>CONTROL DE PRESIÓN DIFERENCIAL</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>P74FA-1C</t>
+          <t>TR40VA004</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>CONTROL DE PRESIÓN DIFERENCIAL</t>
+          <t>TRANFORMADOR 40 VA (TR40VA004)</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
@@ -1132,10 +1132,10 @@
         <v>1</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>AQD-BBBE</t>
+          <t>EHD110-800</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>AQD-BBBE SENSOR DE TEMPERATURA DEL CONDUCTO</t>
+          <t>SENSOR DE TEMPERATURA DEL CONDUCTO</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>CO5050</t>
+          <t>CKIT-VMD1B-C24A</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>COFRE METALICO DE 50cm x 50cm x 15cm</t>
+          <t>RLY KIT-VMD1B-C24A</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="H33" s="3" t="n">
-        <v>1000</v>
+        <v>16.65</v>
       </c>
       <c r="I33" s="3" t="n">
-        <v>1000</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="34">
@@ -1202,12 +1202,12 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>EHD110-800</t>
+          <t>AQD-BBBE</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>SENSOR DE TEMPERATURA DEL CONDUCTO</t>
+          <t>AQD-BBBE SENSOR DE TEMPERATURA DEL CONDUCTO</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -1231,12 +1231,12 @@
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>CKIT-VMD1B-C24A</t>
+          <t>CO5050</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>RLY KIT-VMD1B-C24A</t>
+          <t>COFRE METALICO DE 50cm x 50cm x 15cm</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
@@ -1248,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="H35" s="3" t="n">
-        <v>16.65</v>
+        <v>1000</v>
       </c>
       <c r="I35" s="3" t="n">
-        <v>16.65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -1266,7 +1266,7 @@
       <c r="G36" s="2" t="n"/>
       <c r="H36" s="2" t="n"/>
       <c r="I36" s="2" t="n">
-        <v>2724.3</v>
+        <v>2677.3</v>
       </c>
     </row>
     <row r="38" ht="25" customHeight="1">
@@ -1342,10 +1342,10 @@
         <v>1</v>
       </c>
       <c r="H40" s="3" t="n">
-        <v>608.4299999999999</v>
+        <v>485.73</v>
       </c>
       <c r="I40" s="3" t="n">
-        <v>608.4299999999999</v>
+        <v>485.73</v>
       </c>
     </row>
     <row r="41">
@@ -1371,40 +1371,54 @@
         <v>1</v>
       </c>
       <c r="H41" s="3" t="n">
-        <v>912.64</v>
+        <v>728.6</v>
       </c>
       <c r="I41" s="3" t="n">
-        <v>912.64</v>
+        <v>728.6</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" s="2" t="n"/>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="inlineStr">
+      <c r="C42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>F4-CGM09090-0</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>Modulo de Control FACILITY EXPLORER F4-CGM09090-0</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>UND</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="2" t="n"/>
+      <c r="D43" s="2" t="n"/>
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>SUBTOTAL ( USD)</t>
         </is>
       </c>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="n"/>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n">
-        <v>1521.07</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="C44" s="2" t="n"/>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>SUBTOTAL SUMINISTROS Y DESARROLLO ( USD )</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n">
-        <v>7605.37</v>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n">
+        <v>2214.33</v>
       </c>
     </row>
     <row r="45">
@@ -1412,18 +1426,14 @@
       <c r="D45" s="2" t="n"/>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>DESCUENTO</t>
+          <t>SUBTOTAL SUMINISTROS Y DESARROLLO ( USD )</t>
         </is>
       </c>
       <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="n"/>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="H45" s="2" t="n"/>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>8071.629999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1431,14 +1441,18 @@
       <c r="D46" s="2" t="n"/>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>SUBTOTAL MENOS (-) DESCUENTO</t>
+          <t>DESCUENTO</t>
         </is>
       </c>
       <c r="F46" s="2" t="n"/>
       <c r="G46" s="2" t="n"/>
-      <c r="H46" s="2" t="n"/>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="I46" s="2" t="n">
-        <v>7605.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1446,18 +1460,14 @@
       <c r="D47" s="2" t="n"/>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>ADMINISTRACIÓN</t>
+          <t>SUBTOTAL MENOS (-) DESCUENTO</t>
         </is>
       </c>
       <c r="F47" s="2" t="n"/>
       <c r="G47" s="2" t="n"/>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>7%</t>
-        </is>
-      </c>
+      <c r="H47" s="2" t="n"/>
       <c r="I47" s="2" t="n">
-        <v>532.38</v>
+        <v>8071.629999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1465,18 +1475,18 @@
       <c r="D48" s="2" t="n"/>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>IMPREVISTROS</t>
+          <t>ADMINISTRACIÓN</t>
         </is>
       </c>
       <c r="F48" s="2" t="n"/>
       <c r="G48" s="2" t="n"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>7.0%</t>
         </is>
       </c>
       <c r="I48" s="2" t="n">
-        <v>228.16</v>
+        <v>565.0141</v>
       </c>
     </row>
     <row r="49">
@@ -1484,18 +1494,18 @@
       <c r="D49" s="2" t="n"/>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>UTILIDADES</t>
+          <t>IMPREVISTROS</t>
         </is>
       </c>
       <c r="F49" s="2" t="n"/>
       <c r="G49" s="2" t="n"/>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>8%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="I49" s="2" t="n">
-        <v>608.4299999999999</v>
+        <v>242.1489</v>
       </c>
     </row>
     <row r="50">
@@ -1503,14 +1513,18 @@
       <c r="D50" s="2" t="n"/>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>SUBTOTAL COSTO DIRECTO + INDIRECTO</t>
+          <t>UTILIDADES</t>
         </is>
       </c>
       <c r="F50" s="2" t="n"/>
       <c r="G50" s="2" t="n"/>
-      <c r="H50" s="2" t="n"/>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>8.0%</t>
+        </is>
+      </c>
       <c r="I50" s="2" t="n">
-        <v>8974.34</v>
+        <v>645.7303999999999</v>
       </c>
     </row>
     <row r="51">
@@ -1518,18 +1532,14 @@
       <c r="D51" s="2" t="n"/>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>IVA/UTILIDAD</t>
+          <t>SUBTOTAL COSTO DIRECTO + INDIRECTO</t>
         </is>
       </c>
       <c r="F51" s="2" t="n"/>
       <c r="G51" s="2" t="n"/>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>19%</t>
-        </is>
-      </c>
+      <c r="H51" s="2" t="n"/>
       <c r="I51" s="2" t="n">
-        <v>1705.1246</v>
+        <v>9524.5234</v>
       </c>
     </row>
     <row r="52">
@@ -1537,23 +1547,42 @@
       <c r="D52" s="2" t="n"/>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>VALOR TOTAL (USD) DÓLAR ESTADOUNIDENSE</t>
+          <t>IVA/UTILIDAD</t>
         </is>
       </c>
       <c r="F52" s="2" t="n"/>
       <c r="G52" s="2" t="n"/>
-      <c r="H52" s="2" t="n"/>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>19.0%</t>
+        </is>
+      </c>
       <c r="I52" s="2" t="n">
-        <v>10679.46</v>
+        <v>1809.659446</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="2" t="n"/>
+      <c r="D53" s="2" t="n"/>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>VALOR TOTAL (USD) DÓLAR ESTADOUNIDENSE</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="n"/>
+      <c r="G53" s="2" t="n"/>
+      <c r="H53" s="2" t="n"/>
+      <c r="I53" s="2" t="n">
+        <v>11334.182846</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C28:I28"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C18:I18"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C20:I20"/>
     <mergeCell ref="C38:I38"/>
     <mergeCell ref="C19:I19"/>
   </mergeCells>
